--- a/biology/Zoologie/Astrocladus/Astrocladus.xlsx
+++ b/biology/Zoologie/Astrocladus/Astrocladus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrocladus est un genre d'ophiures (échinodermes) de la famille des Gorgonocephalidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Carctéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein de sa famille, ce genre se distingue par le fait que les épines apparaissent après la première ou seconde ramification des bras[1]. Les ossicules externes du disque sont en forme de cônes, le madréporite borde la bouche[2].
-Il est répandu dans le bassin Indo-Pacifique, de l'Afrique du sud au Pacifique, et relativement courant à faible profondeur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de sa famille, ce genre se distingue par le fait que les épines apparaissent après la première ou seconde ramification des bras. Les ossicules externes du disque sont en forme de cônes, le madréporite borde la bouche.
+Il est répandu dans le bassin Indo-Pacifique, de l'Afrique du sud au Pacifique, et relativement courant à faible profondeur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 janvier 2015) :
 Astrocladus africanus Mortensen, 1933 -- Afrique du Sud
 Astrocladus annulatus (Matsumoto, 1912) -- Japon
 Astrocladus coniferus (Döderlein, 1902) -- Mer de Chine et Japon
